--- a/biology/Médecine/Institut_d'hématologie_et_d'oncologie_pédiatrique/Institut_d'hématologie_et_d'oncologie_pédiatrique.xlsx
+++ b/biology/Médecine/Institut_d'hématologie_et_d'oncologie_pédiatrique/Institut_d'hématologie_et_d'oncologie_pédiatrique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Institut_d%27h%C3%A9matologie_et_d%27oncologie_p%C3%A9diatrique</t>
+          <t>Institut_d'hématologie_et_d'oncologie_pédiatrique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L'Institut d'hématologie et d’oncologie pédiatrique de Lyon (IHOPe) est un établissement hospitalier spécialisé fondé en 2008 par la réunion du département de pédiatrie du centre Léon-Bérard (CLB) et du service d’hématologie de l’hôpital Debrousse, ancien établissement des Hospices civils de Lyon[1].
+L'Institut d'hématologie et d’oncologie pédiatrique de Lyon (IHOPe) est un établissement hospitalier spécialisé fondé en 2008 par la réunion du département de pédiatrie du centre Léon-Bérard (CLB) et du service d’hématologie de l’hôpital Debrousse, ancien établissement des Hospices civils de Lyon.
 L’IHOPe est spécialisé dans le traitement et la recherche sur les cancers et les maladies du sang de l’enfant et de l’adolescent.
 </t>
         </is>
